--- a/tse.xlsx
+++ b/tse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GSSOCC\rgpvApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF6BEBE0-FDBB-4750-A3E5-FAFA3EB91D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88164917-0C51-42C0-BEE9-DA8C98DF0FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6588" yWindow="0" windowWidth="16452" windowHeight="8880" xr2:uid="{2545EEC9-A1B0-4A27-B769-9F712DC5670C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2545EEC9-A1B0-4A27-B769-9F712DC5670C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,22 +34,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>enrolment_id</t>
   </si>
   <si>
-    <t>0176CS221001</t>
-  </si>
-  <si>
-    <t>0176CS221002</t>
+    <t>0176CS221007</t>
+  </si>
+  <si>
+    <t>0176CS221008</t>
+  </si>
+  <si>
+    <t>0176CS221012</t>
+  </si>
+  <si>
+    <t>0176CS221013</t>
+  </si>
+  <si>
+    <t>0176CS221009</t>
+  </si>
+  <si>
+    <t>0176CS221010</t>
+  </si>
+  <si>
+    <t>0176CS221011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,10 +73,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,33 +426,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D4156D-6271-43C2-8709-D9937436DA5F}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>